--- a/Graficas-HDT5.xlsx
+++ b/Graficas-HDT5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Pedro\Desktop\UVG\2019\Primer Semestre\Estructura y Base de Datos\HDT´s\HojaDeTrabajo5-Simpy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D4B86-1D07-465F-ACFC-1CA87B5C6D49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632B75F7-0AEE-47FE-813B-8CABAF26E19F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CC13A17-EE01-48E1-A7C4-15CCDCA16C51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9CC13A17-EE01-48E1-A7C4-15CCDCA16C51}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -290,35 +290,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -390,6 +361,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -397,15 +377,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -512,6 +483,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -519,15 +499,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -634,6 +605,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -641,18 +621,38 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -668,40 +668,3024 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Intervalos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de 10</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> TIEMPO PROMEDIO (seg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA88-43C8-881E-051ECA5BE8DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="730497920"/>
+        <c:axId val="730493984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="730497920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730493984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="730493984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730497920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Intervalos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de 5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> TIEMPO PROMEDIO (seg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$21:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.420000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7C3-4975-959E-5F48C240A593}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="464926984"/>
+        <c:axId val="464927312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="464926984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464927312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="464927312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464926984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Intervalos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> TIEMPO PROMEDIO (seg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$38:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$38:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.819999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9975-47CF-807E-CD75347536B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="720960456"/>
+        <c:axId val="720957504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="720960456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="720957504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="720957504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="720960456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>756396</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>756396</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF0BBF2-F4BB-4F16-930D-4455E0FACACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>756396</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>756396</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2183B35-B59A-4442-98BB-BD27EB41C98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>110937</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA96C7F-410A-44F4-B195-18AA28CC3A76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6AFBF88E-1CB0-41AE-AAAF-6510C28486A7}" name="Tabla3" displayName="Tabla3" ref="B37:E42" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6AFBF88E-1CB0-41AE-AAAF-6510C28486A7}" name="Tabla3" displayName="Tabla3" ref="B37:E42" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="B37:E42" xr:uid="{D5168F5E-D670-48DF-8EB6-D04A74B9E921}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4CAA3FEE-829E-46EC-8C96-2A6F7109B9AD}" name="PROCESOS" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{DF030E00-BF46-4DE2-A8B6-B6BA780BC4CD}" name="TIEMPO  (seg)" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{6DDA36E2-4577-4629-B3E6-AB3B77D0B594}" name=" TIEMPO PROMEDIO (seg)" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{DCB7556E-F974-4258-BFCE-7BA8F845908B}" name="DESVIACIÓN ESTÁNDAR (seg)" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{4CAA3FEE-829E-46EC-8C96-2A6F7109B9AD}" name="PROCESOS" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{DF030E00-BF46-4DE2-A8B6-B6BA780BC4CD}" name="TIEMPO  (seg)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{6DDA36E2-4577-4629-B3E6-AB3B77D0B594}" name=" TIEMPO PROMEDIO (seg)" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{DCB7556E-F974-4258-BFCE-7BA8F845908B}" name="DESVIACIÓN ESTÁNDAR (seg)" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{127BA33E-3025-4F86-BC3A-070C72253627}" name="Tabla4" displayName="Tabla4" ref="B20:E25" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{127BA33E-3025-4F86-BC3A-070C72253627}" name="Tabla4" displayName="Tabla4" ref="B20:E25" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="B20:E25" xr:uid="{7F4C84B1-CD5D-49F1-A342-C42397403D34}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C3D9B276-373B-427E-82EE-E2BCAF9C1AFE}" name="PROCESOS" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{58259D2D-DA39-4B27-BB3E-237024A5A053}" name="TIEMPO  (seg)" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{79263735-3144-4904-96DD-89E148FE8B6E}" name=" TIEMPO PROMEDIO (seg)" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D1A38609-9483-4E74-AADA-70ECB59F95D9}" name="DESVIACIÓN ESTÁNDAR (seg)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{C3D9B276-373B-427E-82EE-E2BCAF9C1AFE}" name="PROCESOS" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{58259D2D-DA39-4B27-BB3E-237024A5A053}" name="TIEMPO  (seg)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{79263735-3144-4904-96DD-89E148FE8B6E}" name=" TIEMPO PROMEDIO (seg)" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D1A38609-9483-4E74-AADA-70ECB59F95D9}" name="DESVIACIÓN ESTÁNDAR (seg)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{15FDA959-7AB0-468E-9B84-C63A3001D5F8}" name="Tabla5" displayName="Tabla5" ref="B3:E8" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{15FDA959-7AB0-468E-9B84-C63A3001D5F8}" name="Tabla5" displayName="Tabla5" ref="B3:E8" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B3:E8" xr:uid="{5F905FD7-F31E-4DBE-B454-4855A37A3507}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CF0B345E-ED9D-450F-8D25-F7CAAA6AF6A1}" name="PROCESOS" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7BA2BD11-40A7-43E2-BA28-556FC8CBDE45}" name="TIEMPO  (seg)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{D9927D26-140C-4A20-AFFB-BF48978C2B7C}" name=" TIEMPO PROMEDIO (seg)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9A6A6B59-8862-480A-B09A-1E252CD87470}" name="DESVIACIÓN ESTÁNDAR (seg)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CF0B345E-ED9D-450F-8D25-F7CAAA6AF6A1}" name="PROCESOS" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7BA2BD11-40A7-43E2-BA28-556FC8CBDE45}" name="TIEMPO  (seg)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D9927D26-140C-4A20-AFFB-BF48978C2B7C}" name=" TIEMPO PROMEDIO (seg)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9A6A6B59-8862-480A-B09A-1E252CD87470}" name="DESVIACIÓN ESTÁNDAR (seg)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1006,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEB6BAF-D9B3-4D2B-B9E6-7558E25C93ED}">
   <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,10 +4290,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>